--- a/data/income_statement/3digits/total/411_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/411_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>411-Development of building projects</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>411-Development of building projects</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>251303.40123</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>276051.71908</v>
+        <v>276051.7190800001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>464147.18566</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>662534.77327</v>
+        <v>666420.49222</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>829885.0113400002</v>
+        <v>831598.0460999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>838382.1688499999</v>
+        <v>846288.06473</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>809199.7862699999</v>
+        <v>830124.39488</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>737069.4358999999</v>
+        <v>773046.07078</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1364664.11559</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1158702.33084</v>
+        <v>1239906.7224</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1022453.19046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1071463.77165</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>867218.4840000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>230586.49594</v>
@@ -998,34 +909,39 @@
         <v>425149.35697</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>630317.3745799999</v>
+        <v>633537.23431</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>791610.3014499999</v>
+        <v>792361.9559600001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>794877.5983200001</v>
+        <v>801501.50424</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>697134.75385</v>
+        <v>715743.35473</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>667473.6276400001</v>
+        <v>703438.52131</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1227525.79462</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1079543.2064</v>
+        <v>1160503.80365</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>957032.7677900001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>997655.8626700001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>810899.002</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>23.64025</v>
@@ -1049,7 +965,7 @@
         <v>5213.48851</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>170.37525</v>
+        <v>170.37526</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>8237.948780000001</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>1303.103</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>20693.26504</v>
@@ -1076,34 +997,39 @@
         <v>33981.36865</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>29755.02427</v>
+        <v>30420.88349</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>38253.96227</v>
+        <v>39215.34252000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>35372.47859999999</v>
+        <v>36654.46856</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>106851.54391</v>
+        <v>109167.55164</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>69425.43301000001</v>
+        <v>69437.17421</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>128900.37219</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>79154.81653</v>
+        <v>79398.61084000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>65415.42267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>73802.90897999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>55016.379</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>13.43814</v>
@@ -1115,16 +1041,16 @@
         <v>31.96588</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>77.67804</v>
+        <v>77.67804000000001</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>287.05493</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>471.55675</v>
+        <v>471.5567500000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1370.59901</v>
+        <v>1374.06199</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>498.35954</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>3443.84863</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>9138.069</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>9.39433</v>
@@ -1154,16 +1085,16 @@
         <v>27.05531</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>47.27604</v>
+        <v>47.27604000000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>51.43434</v>
+        <v>51.43434000000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>468.24385</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1366.31088</v>
+        <v>1368.27766</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>498.35952</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>3437.43878</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>9120.866</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.21975</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>6.40985</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>17.203</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3.82406</v>
@@ -1241,7 +1182,7 @@
         <v>3.3129</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0.35</v>
+        <v>1.8462</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2e-05</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>251289.96309</v>
@@ -1271,34 +1217,39 @@
         <v>464115.21978</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>662457.09523</v>
+        <v>666342.81418</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>829597.9564100001</v>
+        <v>831310.9911700001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>837910.6120999999</v>
+        <v>845816.50798</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>807829.18726</v>
+        <v>828750.33289</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>736571.0763599999</v>
+        <v>772547.71124</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1363598.57648</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1154879.30827</v>
+        <v>1236083.69983</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1019009.34183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1068019.92302</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>858080.415</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>193593.94681</v>
@@ -1310,34 +1261,39 @@
         <v>380348.63238</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>598688.08288</v>
+        <v>601936.7024600001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>758013.2830400001</v>
+        <v>758736.59377</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>748388.0946800001</v>
+        <v>755411.0614400001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>699219.7476999999</v>
+        <v>708919.33443</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>607884.2390800001</v>
+        <v>643919.2313</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1157316.58928</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>997109.1715599999</v>
+        <v>1077569.4558</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>827002.9596599999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>872796.1662699999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>684639.209</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>110513.45688</v>
@@ -1349,34 +1305,39 @@
         <v>222303.99218</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>268846.85692</v>
+        <v>272095.4765</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>514628.90333</v>
+        <v>515352.21406</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>369679.54527</v>
+        <v>371192.60168</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>372926.85872</v>
+        <v>363629.41405</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>399299.66985</v>
+        <v>433810.66596</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>875275.3513799999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>760044.8661700001</v>
+        <v>817888.0169500001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>538122.79953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>571790.1588199999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>480019.583</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>35597.60721</v>
@@ -1397,25 +1358,30 @@
         <v>136775.80363</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>92878.74043999999</v>
+        <v>101167.32332</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>98408.69964000001</v>
+        <v>99947.20730000001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>162432.94727</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>86615.69018999999</v>
+        <v>86958.41314999999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>135187.67912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>137785.71797</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>102826.855</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>41227.21663</v>
@@ -1433,34 +1399,39 @@
         <v>144316.25108</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>182920.00616</v>
+        <v>188429.91651</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>171880.29508</v>
+        <v>180606.04405</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>87007.23939</v>
+        <v>86992.72784000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>97638.61639000001</v>
+        <v>97638.61639</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>117551.03815</v>
+        <v>139819.50648</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>126487.09684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>136014.9053</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>68490.598</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6255.666090000001</v>
+        <v>6255.66609</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4514.11572</v>
+        <v>4514.115720000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>2477.32029</v>
@@ -1475,7 +1446,7 @@
         <v>59012.73962</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>61533.85346</v>
+        <v>63516.55301</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>23168.6302</v>
@@ -1484,16 +1455,21 @@
         <v>21969.67424</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>32897.57705</v>
+        <v>32903.51922</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>27205.38417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>27205.38418</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>33302.173</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>57696.01628</v>
@@ -1505,73 +1481,83 @@
         <v>83766.5874</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>63769.01235</v>
+        <v>64406.11172</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>71584.67337</v>
+        <v>72574.3974</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>89522.51742</v>
+        <v>90405.44654</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>108609.43956</v>
+        <v>119830.99846</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>128686.83728</v>
+        <v>128628.47994</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>206281.9872</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>157770.13671</v>
+        <v>158514.24403</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>192006.38217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>195223.75675</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>173441.206</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>153914.11655</v>
+        <v>153853.46428</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>166395.10491</v>
+        <v>166427.15378</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>176262.3289</v>
+        <v>176324.10927</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>187289.50928</v>
+        <v>190549.63529</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>200972.0534</v>
+        <v>205046.97117</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>206194.98411</v>
+        <v>209979.17001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>216071.33613</v>
+        <v>229907.00353</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>256895.57983</v>
+        <v>258422.8728</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>272531.12641</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>295144.1626</v>
+        <v>298403.94504</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>312561.83625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>337152.58792</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>293970.52</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>329.24314</v>
@@ -1583,22 +1569,22 @@
         <v>136.51973</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>475.74714</v>
+        <v>488.6804100000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>51.49402000000001</v>
+        <v>51.49402</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>236.57144</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>237.56976</v>
+        <v>245.12309</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>374.80502</v>
+        <v>385.26162</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>348.53357</v>
+        <v>348.5335699999999</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>340.6087699999999</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>505.8271</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2127.20689</v>
@@ -1631,7 +1622,7 @@
         <v>3255.53555</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1717.29761</v>
+        <v>2431.45594</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>3398.51721</v>
@@ -1640,133 +1631,153 @@
         <v>4210.53029</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4735.958060000001</v>
+        <v>4785.69283</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>6690.35754</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>7813.049</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>151457.66652</v>
+        <v>151397.01425</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>161636.07084</v>
+        <v>161668.11971</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>173469.81547</v>
+        <v>173531.59584</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>183209.779</v>
+        <v>186456.97174</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>197929.09252</v>
+        <v>202004.01029</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>202702.87712</v>
+        <v>206487.06302</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>214116.46876</v>
+        <v>227230.4245</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>253122.2576</v>
+        <v>254639.09397</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>267972.06255</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>290067.59577</v>
+        <v>293277.64344</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>305365.65161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>329956.40328</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>286133.191</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-96218.10027</v>
+        <v>-96157.448</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-118438.39484</v>
+        <v>-118470.44371</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-92495.7415</v>
+        <v>-92557.52187000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-123520.49693</v>
+        <v>-126143.52357</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-129387.38003</v>
+        <v>-132472.57377</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-116672.46669</v>
+        <v>-119573.72347</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-107461.89657</v>
+        <v>-110076.00507</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-128208.74255</v>
+        <v>-129794.39286</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-66249.13920999999</v>
+        <v>-66249.13921000002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-137374.02589</v>
+        <v>-139889.70101</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-120555.45408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-141928.83117</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-120529.314</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>53920.73481000001</v>
+        <v>53920.73480999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>49907.30222</v>
+        <v>49920.94789999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>51754.69735</v>
+        <v>51754.69734999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>60220.28651999999</v>
+        <v>60584.12385999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>87544.04213</v>
+        <v>87994.60174000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>72752.80103</v>
+        <v>73464.24209999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>81347.68694999999</v>
+        <v>84665.91581000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>90691.87450000001</v>
+        <v>90821.49778000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>94389.10855000002</v>
+        <v>94389.10854999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>104139.99875</v>
+        <v>104535.49027</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>124253.28012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>127311.89513</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>123461.59</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>303.50037</v>
@@ -1787,7 +1798,7 @@
         <v>134.1832</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>753.80925</v>
+        <v>759.2487199999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>1366.96714</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>331.8586</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>115.089</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>104.30945</v>
@@ -1817,7 +1833,7 @@
         <v>150.59397</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>164.14055</v>
+        <v>269.19455</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>62.31304</v>
@@ -1840,71 +1856,81 @@
       <c r="M27" s="48" t="n">
         <v>2587.68123</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2794.785</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>21326.99545</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>19257.85182</v>
+        <v>19271.4975</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>20661.24981</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>25960.16748</v>
+        <v>26145.99899</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>21263.32643</v>
+        <v>21573.9291</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>23398.84457</v>
+        <v>23692.15277</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>31847.07926</v>
+        <v>33364.04859</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>36975.01736</v>
+        <v>37034.62372</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>42942.34498</v>
+        <v>42942.34497999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>62086.08254</v>
+        <v>62409.89726000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>81949.75783999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>84252.63499999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>59094.067</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>412.79819</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>4.879639999999999</v>
+        <v>4.87964</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>20.2966</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>23.61653</v>
+        <v>39.53053</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>15.37425</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>199.77908</v>
+        <v>391.9553</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>16.40787</v>
+        <v>26.54006</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>101.81978</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>20.65208</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>89.44799999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4664.76219</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>694.6749699999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6366.473</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>227.8039</v>
@@ -1970,22 +2006,22 @@
         <v>663.2514</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>657.9663300000001</v>
+        <v>657.96633</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1141.60523</v>
+        <v>1148.24891</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1047.27515</v>
+        <v>1048.15085</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>862.56622</v>
+        <v>865.4773299999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>613.28205</v>
+        <v>732.17165</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>659.7850999999999</v>
+        <v>721.9950799999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2215.32022</v>
@@ -1994,13 +2030,18 @@
         <v>421.70412</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1024.85886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1024.94431</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>683.327</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1266.3599</v>
@@ -2018,10 +2059,10 @@
         <v>2169.77612</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1066.92966</v>
+        <v>1074.95839</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>12473.45064</v>
+        <v>12517.64089</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>2844.34623</v>
@@ -2030,16 +2071,21 @@
         <v>6738.93099</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6112.248030000002</v>
+        <v>6172.83448</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4192.24663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4198.168269999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8177.408</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4.64725</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>14.22844</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>74.15683</v>
@@ -2096,7 +2147,7 @@
         <v>1566.06332</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>68.64220999999999</v>
+        <v>68.64221000000001</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>103.32618</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>27.038</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>25535.40128</v>
@@ -2129,34 +2185,39 @@
         <v>22844.44321</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>26550.70325</v>
+        <v>26601.0974</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>57880.96061</v>
+        <v>58020.04185</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>43167.03817</v>
+        <v>43382.05498</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>31741.32847</v>
+        <v>33363.93649</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>48523.38599</v>
+        <v>48531.19293</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>41025.95655</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>33157.37087</v>
+        <v>33168.46122</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>33437.32147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>34187.05222999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>46113.955</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>8816.908429999999</v>
@@ -2168,34 +2229,39 @@
         <v>6774.7219</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6130.617730000001</v>
+        <v>6130.62883</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10151.94563</v>
+        <v>10172.18361</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9101.786169999999</v>
+        <v>9105.74893</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15733.67755</v>
+        <v>15844.91756</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7146.90224</v>
+        <v>7200.325779999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8869.326959999999</v>
+        <v>8869.32696</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7704.09732</v>
+        <v>7715.83</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6509.48065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6548.6331</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6563.14</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>18.76803</v>
@@ -2216,25 +2282,30 @@
         <v>520.30709</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>93.91347</v>
+        <v>95.60785</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>148.74172</v>
+        <v>148.73313</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>96.60716000000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>35.84133</v>
+        <v>35.95123</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>87.31590000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>100.02776</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>143.272</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>363.9209</v>
@@ -2249,19 +2320,19 @@
         <v>356.29904</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>684.5841800000001</v>
+        <v>698.11918</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>544.3479100000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1500.85801</v>
+        <v>1537.79664</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>758.7923199999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>438.8289300000001</v>
+        <v>438.82893</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>1061.70076</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>3309.24538</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>997.0069999999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>6.251990000000001</v>
+        <v>6.25199</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>16.8666</v>
@@ -2291,13 +2367,13 @@
         <v>1.16106</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>4.361350000000001</v>
+        <v>4.607120000000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.40927</v>
+        <v>38.65635</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.43262</v>
@@ -2306,13 +2382,18 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>49.52114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>50.00369999999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1197.91378</v>
@@ -2321,7 +2402,7 @@
         <v>1906.71775</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>671.12843</v>
+        <v>671.1284300000001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>402.03671</v>
@@ -2333,7 +2414,7 @@
         <v>190.19746</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>10325.35454</v>
+        <v>10341.64341</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>1685.51558</v>
@@ -2345,13 +2426,18 @@
         <v>2068.66865</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>743.96667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>743.9666699999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1850.249</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>6.36781</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>46.78</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>82.23701</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7141.44891</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3215.512130000001</v>
+        <v>3215.51213</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>5806.16791</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5246.97014</v>
+        <v>5246.981239999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8423.733440000002</v>
+        <v>8430.43642</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7555.21849</v>
+        <v>7558.935479999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3776.34756</v>
+        <v>3832.66569</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4495.26802</v>
+        <v>4510.45307</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2968.74446</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4415.206139999999</v>
+        <v>4426.82892</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2272.65156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2298.60959</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3572.612</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>4956.70713</v>
@@ -2477,37 +2578,42 @@
         <v>2984.56142</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4479.91752</v>
+        <v>4500.79329</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5611.1054</v>
+        <v>5631.789499999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3545.37538</v>
+        <v>4159.33839</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8466.046759999999</v>
+        <v>8782.764870000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16149.91952</v>
+        <v>16407.94639</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15727.05392</v>
+        <v>15155.14692</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>21349.30717</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18880.46278</v>
+        <v>18896.94167</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12051.022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12055.66351</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>16074.552</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3302.70444</v>
@@ -2519,34 +2625,39 @@
         <v>3423.41754</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5336.47435</v>
+        <v>5337.11095</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3171.04635</v>
+        <v>3196.73138</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>8265.424229999999</v>
+        <v>8291.42218</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>15714.6714</v>
+        <v>15959.7518</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15541.28183</v>
+        <v>14969.37483</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>20865.16351</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>18228.42852</v>
+        <v>18244.90741</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11379.82732</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11384.46883</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9635.254999999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1654.00269</v>
@@ -2555,19 +2666,19 @@
         <v>591.78713</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1056.49998</v>
+        <v>1077.37575</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>274.63105</v>
+        <v>294.67855</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>374.32903</v>
+        <v>962.6070100000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>200.62253</v>
+        <v>491.34269</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>435.24812</v>
+        <v>448.19459</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>185.77209</v>
@@ -2579,52 +2690,62 @@
         <v>652.03426</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>671.1946799999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>671.1946800000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6439.297</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-56070.98102000001</v>
+        <v>-56010.32875</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-77332.41682</v>
+        <v>-77350.82001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-51995.68357</v>
+        <v>-52078.33971</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-75041.93354</v>
+        <v>-77321.81804000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-55540.65891000001</v>
+        <v>-58809.49403</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-61487.49859</v>
+        <v>-63997.99516999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-57997.80669</v>
+        <v>-57662.95320999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-60390.82421000001</v>
+        <v>-61328.36778</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2078.664789999999</v>
+        <v>-2078.664789999992</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-59818.58724</v>
+        <v>-61966.98241000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-14862.67660999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-33221.23265000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-19705.416</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>25047.72432</v>
@@ -2633,40 +2754,45 @@
         <v>91289.52272999998</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>45885.6532</v>
+        <v>45890.02821</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>38034.59323</v>
+        <v>39067.96397</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>59893.83822000001</v>
+        <v>59967.25312</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>46850.80744999999</v>
+        <v>48160.96079</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>97259.37131999999</v>
+        <v>99894.23293</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>67619.21491</v>
+        <v>68131.40329</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>48112.67162000001</v>
+        <v>48112.67161999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>30186.2865</v>
+        <v>30731.47816</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>28773.60409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>29139.19202</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48482.64</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>80.25223999999999</v>
+        <v>80.25224</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>444.51797</v>
@@ -2675,7 +2801,7 @@
         <v>226.25927</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>45.71214999999999</v>
+        <v>45.71215</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2778.73726</v>
@@ -2693,94 +2819,109 @@
         <v>254.27456</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>150.97205</v>
+        <v>156.59953</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>178.14902</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>34.582</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>24967.47208</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>90845.00476</v>
+        <v>90845.00476000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>45659.39393</v>
+        <v>45663.76894</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>37988.88108</v>
+        <v>39022.25182</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57115.10096</v>
+        <v>57188.51586</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>46059.85528</v>
+        <v>47370.00862000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>96939.61106</v>
+        <v>99574.47267</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>67509.21253</v>
+        <v>68021.40091</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>47858.39706</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>30035.31445</v>
+        <v>30574.87863</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>28595.45507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>28961.043</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>48448.058</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8672.70117</v>
+        <v>8672.701169999998</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>12493.99715</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>43245.44392000001</v>
+        <v>43273.93699</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>49617.36648</v>
+        <v>49656.80094</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24464.23541</v>
+        <v>24577.8379</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>23971.79157</v>
+        <v>24077.96674</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>40369.36942</v>
+        <v>40792.20409</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31746.99744</v>
+        <v>31603.93272</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>24897.3583</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>16141.91503</v>
+        <v>17516.42662</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>21791.21634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>22119.2017</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10467.568</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.2083</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3181.97033</v>
@@ -2828,118 +2974,133 @@
         <v>3659.94619</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6254.12596</v>
+        <v>6255.10165</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3703.46903</v>
+        <v>3711.03906</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10031.75411</v>
+        <v>10032.04711</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>10828.46497</v>
+        <v>10828.49217</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12356.95837</v>
+        <v>12370.66704</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10621.11006</v>
+        <v>10410.40597</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>10929.56772</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4170.110229999999</v>
+        <v>4388.79104</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5551.33836</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5571.56327</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2759.907</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5490.522539999999</v>
+        <v>5490.52254</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>8832.66624</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>36990.36896</v>
+        <v>37017.88634</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>45769.00977999999</v>
+        <v>45800.87420999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>14413.73598</v>
+        <v>14527.04547</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13100.08709</v>
+        <v>13206.23506</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>28012.41105</v>
+        <v>28421.53705</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>21119.54351</v>
+        <v>21187.18288</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>13943.0534</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11970.72599</v>
+        <v>13126.55677</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16239.87798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>16547.63843</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7707.661</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-39695.95787000001</v>
+        <v>-39635.3056</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1463.108759999994</v>
+        <v>1444.705570000002</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-49355.47429</v>
+        <v>-49462.24849</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-86624.70679</v>
+        <v>-87910.65501</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-20111.05609999999</v>
+        <v>-23420.07881</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-38608.48271</v>
+        <v>-39915.00112000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1107.804789999999</v>
+        <v>1439.075630000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-24518.60674</v>
+        <v>-24800.89721</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>21136.64853</v>
+        <v>21136.64852999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-45774.21577</v>
+        <v>-48751.93087</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-7880.28886</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-26201.24233</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18309.656</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6120.89938</v>
+        <v>6120.899380000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>17196.31986</v>
@@ -2948,19 +3109,19 @@
         <v>9906.69225</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6323.449539999999</v>
+        <v>6323.44954</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>18224.99228</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>17085.13886</v>
+        <v>17227.98246</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>16123.55386</v>
+        <v>17101.07566</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>16835.74174</v>
+        <v>16874.02961</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>21045.18137</v>
@@ -2969,49 +3130,57 @@
         <v>21279.69547</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21004.63979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>21363.34324</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>23711.189</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-45816.85724999999</v>
+        <v>-45756.20498</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-15733.2111</v>
+        <v>-15751.61429</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-59262.16654</v>
+        <v>-59368.94074000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-92948.15633</v>
+        <v>-94234.10455</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-38336.04838</v>
+        <v>-41645.07109</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-55693.62157000001</v>
+        <v>-57142.98357999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-17231.35865</v>
+        <v>-15662.00003</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-41354.34848</v>
+        <v>-41674.92682000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>91.46716000000015</v>
+        <v>91.46716000000373</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-67053.91124</v>
+        <v>-70031.62634</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-28884.92865</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-47564.58557</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-5401.533</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5283</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5173</v>
+        <v>5174</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4888</v>
+        <v>4890</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4649</v>
+        <v>4660</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4402</v>
+        <v>4427</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4128</v>
+        <v>4168</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3809</v>
+        <v>3888</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3545</v>
+        <v>3635</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3485</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3150</v>
+        <v>3274</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3102</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>